--- a/DATA/AMBA_stock_data.xlsx
+++ b/DATA/AMBA_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2814"/>
+  <dimension ref="A1:G2815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65172,7 +65172,30 @@
         <v>64.02999877929688</v>
       </c>
       <c r="G2814" t="n">
-        <v>898800</v>
+        <v>899300</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B2815" t="n">
+        <v>64.68000030517578</v>
+      </c>
+      <c r="C2815" t="n">
+        <v>65.37000274658203</v>
+      </c>
+      <c r="D2815" t="n">
+        <v>63.65999984741211</v>
+      </c>
+      <c r="E2815" t="n">
+        <v>64.06999969482422</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>64.06999969482422</v>
+      </c>
+      <c r="G2815" t="n">
+        <v>1506200</v>
       </c>
     </row>
   </sheetData>
